--- a/biology/Médecine/Centre_médical_de_Viipurintie/Centre_médical_de_Viipurintie.xlsx
+++ b/biology/Médecine/Centre_médical_de_Viipurintie/Centre_médical_de_Viipurintie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_de_Viipurintie</t>
+          <t>Centre_médical_de_Viipurintie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre médical de Viipurintie (finnois : Viipurintien terveysasema) ou centre médical d'Hämeenlinna (finnois : Hämeenlinnan terveyskeskus) est une maison médicale du quartier de Keinusaari à Hämeenlinna en Finlande[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre médical de Viipurintie (finnois : Viipurintien terveysasema) ou centre médical d'Hämeenlinna (finnois : Hämeenlinnan terveyskeskus) est une maison médicale du quartier de Keinusaari à Hämeenlinna en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_de_Viipurintie</t>
+          <t>Centre_médical_de_Viipurintie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre médical est la principale maison médicale d'Hämeenlinna et l'un des quatre centres médicaux du centre-ville.
-L'hôpital municipal de Vanajavesi est installé dans les mêmes locaux[4].
+L'hôpital municipal de Vanajavesi est installé dans les mêmes locaux.
 Le centre médical est installé dans les locaux de l'ancien hôpital de Kanta-Häme, qui a commencé ses activités en 1844.
 Les installations ont depuis été agrandies à plusieurs reprises.
 L'hôpital de Kanta-Häme a été transféré à Ahvenisto dans les années 1970 et depuis les bâtiments servent de centre médical municipal.
